--- a/Polaczenie-sieciowe_dla-RPi/Python_Scripts/Distortion_vectors/Dell.xlsx
+++ b/Polaczenie-sieciowe_dla-RPi/Python_Scripts/Distortion_vectors/Dell.xlsx
@@ -423,19 +423,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-34.47935008212507</v>
+        <v>31.50552396203709</v>
       </c>
       <c r="B1" t="n">
-        <v>7064.514971663833</v>
+        <v>-2189.255850275159</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.08683665515944834</v>
+        <v>-0.07623609932353653</v>
       </c>
       <c r="D1" t="n">
-        <v>0.04219719662569304</v>
+        <v>0.7549353290336313</v>
       </c>
       <c r="E1" t="n">
-        <v>106470.0480382678</v>
+        <v>34374.83055851012</v>
       </c>
     </row>
   </sheetData>

--- a/Polaczenie-sieciowe_dla-RPi/Python_Scripts/Distortion_vectors/Dell.xlsx
+++ b/Polaczenie-sieciowe_dla-RPi/Python_Scripts/Distortion_vectors/Dell.xlsx
@@ -423,19 +423,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>31.50552396203709</v>
+        <v>0.05048654129158112</v>
       </c>
       <c r="B1" t="n">
-        <v>-2189.255850275159</v>
+        <v>-0.01788920191841229</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.07623609932353653</v>
+        <v>0.0003362157578973156</v>
       </c>
       <c r="D1" t="n">
-        <v>0.7549353290336313</v>
+        <v>0.0009894218966690254</v>
       </c>
       <c r="E1" t="n">
-        <v>34374.83055851012</v>
+        <v>-0.6333912612548667</v>
       </c>
     </row>
   </sheetData>
